--- a/CFOGE_BOMS_COMBINED_V1dot0.xlsx
+++ b/CFOGE_BOMS_COMBINED_V1dot0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/_.DUBPIXEL/_...CIRCUIT_PROJECTS/_.EURO_QUEST_2021/CFOGE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robdj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979FCCB-1522-1548-BCE4-F5A124D86FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBCA2D-DD6F-41B5-AFDB-88284B459AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21280" yWindow="-18740" windowWidth="21280" windowHeight="19260" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="1020" windowWidth="33570" windowHeight="12280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="video equations -v 2dot1 - JBF" sheetId="5" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>J1-J7</t>
   </si>
   <si>
-    <t>2.1mm DC plug</t>
-  </si>
-  <si>
     <t>9v Battery holder</t>
   </si>
   <si>
@@ -1026,6 +1023,9 @@
   </si>
   <si>
     <t>https://au.mouser.com/ProductDetail/Hammond-Manufacturing/1590BBBK?qs=efUn273yAhda2p905s4xDA%3D%3D</t>
+  </si>
+  <si>
+    <t>2.1mm DC plug (center - 9v power suply )</t>
   </si>
 </sst>
 </file>
@@ -1749,6 +1749,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1773,12 +1779,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2128,11 +2128,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
@@ -2155,67 +2155,67 @@
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="C2" s="57">
         <v>1</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="59">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="61">
         <v>1.28</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N2" s="59"/>
       <c r="O2" s="59">
@@ -2245,22 +2245,22 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="56"/>
       <c r="R2" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="61">
         <v>2.04</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N3" s="62"/>
       <c r="O3" s="62">
@@ -2289,25 +2289,25 @@
       </c>
       <c r="P3" s="16"/>
       <c r="Q3" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R3" s="63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="64">
         <v>2</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" s="59">
         <v>0</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J4" s="61">
         <v>0.72</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="61">
         <v>0</v>
@@ -2341,32 +2341,32 @@
       <c r="P4" s="16"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="27"/>
       <c r="B5" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="64">
         <v>0</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="59"/>
       <c r="G5" s="59"/>
       <c r="H5" s="16"/>
       <c r="I5" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="61"/>
       <c r="K5" s="62"/>
       <c r="L5" s="16"/>
       <c r="M5" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="62"/>
@@ -2374,19 +2374,19 @@
       <c r="Q5" s="27"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="64">
         <v>3</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" s="59">
         <v>0</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J6" s="61">
         <v>0.46</v>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N6" s="61">
         <v>0</v>
@@ -2420,20 +2420,20 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="27"/>
       <c r="B7" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="64">
         <v>0</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F7" s="59"/>
       <c r="G7" s="59">
@@ -2442,13 +2442,13 @@
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="62"/>
       <c r="L7" s="16"/>
       <c r="M7" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N7" s="62"/>
       <c r="O7" s="62">
@@ -2459,19 +2459,19 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F8" s="59">
         <v>0</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="61">
         <v>0.47</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N8" s="61">
         <v>0</v>
@@ -2505,22 +2505,22 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F9" s="59">
         <v>0</v>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J9" s="61">
         <v>0.23</v>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="61">
         <v>0</v>
@@ -2553,25 +2553,25 @@
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="31" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="69">
         <v>0</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F10" s="59"/>
       <c r="G10" s="70">
@@ -2580,13 +2580,13 @@
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72"/>
       <c r="L10" s="16"/>
       <c r="M10" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N10" s="72"/>
       <c r="O10" s="72">
@@ -2595,23 +2595,23 @@
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R10" s="73"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="59">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="61">
         <v>2.1800000000000002</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N11" s="61">
         <v>0</v>
@@ -2643,22 +2643,22 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="64">
         <v>0</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="59">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="61">
         <v>0.97</v>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N12" s="61">
         <v>0</v>
@@ -2689,25 +2689,25 @@
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R12" s="63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="69">
         <v>0</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="59"/>
       <c r="G13" s="70">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="61">
         <v>0.97</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="137" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N13" s="61">
         <v>0</v>
@@ -2738,23 +2738,23 @@
       </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R13" s="73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28"/>
       <c r="B14" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="69">
         <v>7</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="70">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="54" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J14" s="61">
         <v>0.97</v>
@@ -2774,7 +2774,7 @@
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N14" s="61">
         <v>0</v>
@@ -2787,19 +2787,19 @@
       <c r="Q14" s="68"/>
       <c r="R14" s="73"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="64">
         <v>2</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="59">
         <v>0</v>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="62">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" s="61">
         <v>0</v>
@@ -2831,10 +2831,10 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="64"/>
@@ -2844,7 +2844,7 @@
       <c r="G16" s="59"/>
       <c r="H16" s="16"/>
       <c r="I16" s="55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="62"/>
@@ -2856,19 +2856,19 @@
       <c r="Q16" s="27"/>
       <c r="R16" s="63"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>25</v>
       </c>
       <c r="C17" s="64">
         <v>1</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F17" s="59">
         <v>0</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="61">
         <v>0.1</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N17" s="61">
         <v>0</v>
@@ -2902,22 +2902,22 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="63" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="C18" s="64">
         <v>3</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F18" s="59">
         <v>0</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" s="61">
         <v>0.83</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N18" s="61">
         <v>0</v>
@@ -2950,33 +2950,33 @@
       </c>
       <c r="P18" s="16"/>
       <c r="Q18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="63" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="C19" s="64">
         <v>9</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="62" t="s">
         <v>267</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>268</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="16"/>
       <c r="I19" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" s="61">
         <v>0.39</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N19" s="61">
         <v>0</v>
@@ -2999,22 +2999,22 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="64">
         <v>1</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F20" s="59">
         <v>0</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J20" s="61">
         <v>0.62</v>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N20" s="61">
         <v>0</v>
@@ -3047,25 +3047,25 @@
       </c>
       <c r="P20" s="16"/>
       <c r="Q20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R20" s="63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="69">
         <v>0</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="70">
@@ -3074,13 +3074,13 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="71"/>
       <c r="K21" s="72"/>
       <c r="L21" s="16"/>
       <c r="M21" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="72">
@@ -3089,23 +3089,23 @@
       </c>
       <c r="P21" s="16"/>
       <c r="Q21" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R21" s="73"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="64">
         <v>1</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F22" s="59">
         <v>0</v>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="61">
         <v>1.93</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N22" s="61">
         <v>0</v>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="P22" s="16"/>
       <c r="Q22" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R22" s="63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F23" s="59">
         <v>0</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J23" s="61">
         <v>0.54</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N23" s="61">
         <v>0</v>
@@ -3189,37 +3189,37 @@
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R23" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="64">
         <v>0</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
       <c r="H24" s="16"/>
       <c r="I24" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J24" s="75"/>
       <c r="K24" s="68"/>
       <c r="L24" s="16"/>
       <c r="M24" s="138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N24" s="61">
         <v>0</v>
@@ -3227,22 +3227,22 @@
       <c r="O24" s="62"/>
       <c r="P24" s="16"/>
       <c r="Q24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="64">
         <v>14</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="59">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J25" s="61">
         <v>0.14799999999999999</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N25" s="61">
         <v>0</v>
@@ -3276,25 +3276,25 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="27"/>
       <c r="R25" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="S25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="S25" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="64">
         <v>1</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="59">
         <v>0</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J26" s="61">
         <v>0.37</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N26" s="61">
         <v>0</v>
@@ -3327,25 +3327,25 @@
       </c>
       <c r="P26" s="16"/>
       <c r="Q26" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="64">
         <v>1</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F27" s="59">
         <v>0</v>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J27" s="61">
         <v>0.76</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N27" s="61">
         <v>0</v>
@@ -3379,22 +3379,22 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C28" s="64">
         <v>1</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="59">
         <v>0</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J28" s="61">
         <v>0.2</v>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N28" s="61">
         <v>0</v>
@@ -3428,22 +3428,22 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="C29" s="64">
         <v>4</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="59">
         <v>0</v>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J29" s="61">
         <v>1.5</v>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N29" s="61">
         <v>0</v>
@@ -3476,25 +3476,25 @@
       </c>
       <c r="P29" s="16"/>
       <c r="Q29" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="C30" s="64">
         <v>1</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F30" s="59">
         <v>0</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J30" s="61">
         <v>2.42</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N30" s="61">
         <v>0</v>
@@ -3528,22 +3528,22 @@
       <c r="P30" s="16"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="64">
         <v>8</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="59">
         <v>0</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J31" s="61">
         <v>0.36</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N31" s="61">
         <v>0</v>
@@ -3575,28 +3575,28 @@
       </c>
       <c r="P31" s="16"/>
       <c r="Q31" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="77">
         <v>3</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F32" s="59">
         <v>0</v>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J32" s="61">
         <v>0.36</v>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N32" s="61">
         <v>0</v>
@@ -3632,19 +3632,19 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C33" s="78">
         <v>0</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="78"/>
       <c r="G33" s="70">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J33" s="71">
         <v>0.36</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="137" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N33" s="61">
         <v>0</v>
@@ -3678,19 +3678,19 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34" s="78">
         <v>0</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="78"/>
       <c r="G34" s="70">
@@ -3703,7 +3703,7 @@
       <c r="K34" s="72"/>
       <c r="L34" s="16"/>
       <c r="M34" s="137" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N34" s="61">
         <v>0</v>
@@ -3717,19 +3717,19 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="64">
         <v>1</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="77"/>
       <c r="G35" s="59">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J35" s="61">
         <v>0.66</v>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N35" s="61">
         <v>0</v>
@@ -3760,25 +3760,25 @@
       </c>
       <c r="P35" s="16"/>
       <c r="Q35" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>16</v>
-      </c>
       <c r="B36" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="64">
         <v>20</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="77"/>
       <c r="G36" s="59">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J36" s="61">
         <v>0.1</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N36" s="61">
         <v>0</v>
@@ -3810,22 +3810,22 @@
       <c r="P36" s="16"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="64">
         <v>1</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F37" s="77"/>
       <c r="G37" s="59">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J37" s="61">
         <v>0.54</v>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N37" s="61">
         <v>0</v>
@@ -3856,25 +3856,25 @@
       </c>
       <c r="P37" s="16"/>
       <c r="Q37" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C38" s="69">
         <v>0</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="78"/>
       <c r="G38" s="70">
@@ -3883,7 +3883,7 @@
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J38" s="71"/>
       <c r="K38" s="72"/>
@@ -3893,26 +3893,26 @@
       <c r="O38" s="72"/>
       <c r="P38" s="16"/>
       <c r="Q38" s="58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C39" s="64">
         <v>6</v>
       </c>
       <c r="D39" s="16"/>
       <c r="E39" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="77"/>
       <c r="G39" s="59">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J39" s="62">
         <v>0.1</v>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N39" s="61">
         <v>0</v>
@@ -3944,22 +3944,22 @@
       <c r="P39" s="16"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="64">
         <v>1</v>
       </c>
       <c r="D40" s="16"/>
       <c r="E40" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F40" s="77"/>
       <c r="G40" s="59">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J40" s="62">
         <v>0.61</v>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="L40" s="16"/>
       <c r="M40" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N40" s="61">
         <v>0</v>
@@ -3991,22 +3991,22 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C41" s="64">
         <v>1</v>
       </c>
       <c r="D41" s="16"/>
       <c r="E41" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F41" s="77"/>
       <c r="G41" s="59">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J41" s="62">
         <v>0.7</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N41" s="61">
         <v>0</v>
@@ -4038,22 +4038,22 @@
       <c r="P41" s="16"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="64">
         <v>1</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="77"/>
       <c r="G42" s="59">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J42" s="62">
         <v>0.73</v>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N42" s="61">
         <v>0</v>
@@ -4085,22 +4085,22 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="27"/>
       <c r="R42" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="64">
         <v>1</v>
       </c>
       <c r="D43" s="16"/>
       <c r="E43" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="77"/>
       <c r="G43" s="59">
@@ -4109,7 +4109,7 @@
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J43" s="62">
         <v>0.54</v>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N43" s="61">
         <v>0</v>
@@ -4132,15 +4132,15 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="27"/>
       <c r="R43" s="11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="80">
         <v>1</v>
@@ -4159,22 +4159,22 @@
       <c r="O44" s="84"/>
       <c r="P44" s="83"/>
       <c r="Q44" s="66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="80">
         <v>1</v>
       </c>
       <c r="D45" s="16"/>
       <c r="E45" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="85"/>
       <c r="G45" s="62">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45" s="62">
         <v>9.19</v>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N45" s="61">
         <v>7.99</v>
@@ -4204,25 +4204,25 @@
       </c>
       <c r="P45" s="16"/>
       <c r="Q45" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="80">
         <v>1</v>
       </c>
       <c r="D46" s="16"/>
       <c r="E46" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F46" s="85"/>
       <c r="G46" s="62">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J46" s="62">
         <v>3.83</v>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N46" s="61">
         <v>3.83</v>
@@ -4252,13 +4252,13 @@
       </c>
       <c r="P46" s="16"/>
       <c r="Q46" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="76"/>
       <c r="B47" s="76"/>
       <c r="C47" s="80"/>
@@ -4280,7 +4280,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="27"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="76"/>
       <c r="B48" s="76"/>
       <c r="C48" s="80"/>
@@ -4302,16 +4302,16 @@
       <c r="P48" s="16"/>
       <c r="Q48" s="27"/>
       <c r="R48" s="11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="76"/>
       <c r="B49" s="76"/>
       <c r="C49" s="80"/>
       <c r="D49" s="16"/>
       <c r="E49" s="87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="86">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J49" s="86"/>
       <c r="K49" s="86">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N49" s="86"/>
       <c r="O49" s="86">
@@ -4339,37 +4339,37 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="27"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="139"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50" s="145"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="145"/>
+      <c r="P50" s="145"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="145"/>
+      <c r="T50" s="145"/>
+      <c r="U50" s="145"/>
+      <c r="V50" s="145"/>
+      <c r="W50" s="145"/>
+      <c r="X50" s="145"/>
+      <c r="Y50" s="145"/>
+      <c r="Z50" s="145"/>
+      <c r="AA50" s="145"/>
+      <c r="AB50" s="145"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F51"/>
       <c r="G51"/>
       <c r="J51"/>
@@ -4377,7 +4377,7 @@
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F52"/>
       <c r="G52"/>
       <c r="J52"/>
@@ -4385,7 +4385,7 @@
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F53"/>
       <c r="G53"/>
       <c r="J53"/>
@@ -4393,7 +4393,7 @@
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="89"/>
@@ -4413,7 +4413,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F55"/>
       <c r="G55"/>
       <c r="J55"/>
@@ -4421,7 +4421,7 @@
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F56"/>
       <c r="G56"/>
       <c r="J56"/>
@@ -4429,7 +4429,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F57"/>
       <c r="G57"/>
       <c r="J57"/>
@@ -4437,7 +4437,7 @@
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F58"/>
       <c r="G58"/>
       <c r="J58"/>
@@ -4501,11 +4501,11 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="S4" sqref="S4:U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="33" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="33" bestFit="1" customWidth="1"/>
@@ -4531,55 +4531,55 @@
     <col min="22" max="16384" width="11.1640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="111" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="118" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="118" t="s">
-        <v>92</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="133" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4611,10 +4611,10 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -4646,10 +4646,10 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C4" s="124">
         <v>0</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="110">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N4" s="122">
         <v>2.2999999999999998</v>
@@ -4683,23 +4683,23 @@
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="147" t="s">
+      <c r="S4" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="T4" s="139" t="s">
         <v>301</v>
       </c>
-      <c r="T4" s="147" t="s">
+      <c r="U4" s="140" t="s">
         <v>302</v>
       </c>
-      <c r="U4" s="148" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C5" s="124">
         <v>1</v>
@@ -4710,7 +4710,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="15"/>
       <c r="I5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J5" s="50">
         <v>3.23</v>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N5" s="122">
         <v>2.98</v>
@@ -4732,23 +4732,23 @@
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="147" t="s">
+      <c r="S5" s="139" t="s">
+        <v>303</v>
+      </c>
+      <c r="T5" s="140" t="s">
         <v>304</v>
       </c>
-      <c r="T5" s="148" t="s">
+      <c r="U5" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="U5" s="149" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="124"/>
       <c r="D6" s="15"/>
@@ -4761,7 +4761,7 @@
       <c r="K6" s="110"/>
       <c r="L6" s="15"/>
       <c r="M6" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N6" s="122">
         <v>3.76</v>
@@ -4772,19 +4772,19 @@
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="149" t="s">
-        <v>307</v>
-      </c>
-      <c r="T6" s="150"/>
+      <c r="S6" s="141" t="s">
+        <v>306</v>
+      </c>
+      <c r="T6" s="142"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="133" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="124">
         <v>3</v>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J7" s="50"/>
       <c r="L7" s="15"/>
       <c r="M7" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N7" s="122">
         <v>2.4</v>
@@ -4815,16 +4815,16 @@
       <c r="P7" s="15"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="151" t="s">
-        <v>308</v>
-      </c>
-      <c r="T7" s="152"/>
+      <c r="S7" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="T7" s="144"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="15"/>
@@ -4833,7 +4833,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="15"/>
       <c r="I8" s="132" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J8" s="50">
         <v>2.5</v>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N8" s="122">
         <v>2.25</v>
@@ -4856,18 +4856,18 @@
       <c r="P8" s="15"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="147" t="s">
+      <c r="S8" s="139" t="s">
+        <v>308</v>
+      </c>
+      <c r="T8" s="139" t="s">
         <v>309</v>
       </c>
-      <c r="T8" s="147" t="s">
-        <v>310</v>
-      </c>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="133" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C9" s="124">
         <v>15</v>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N9" s="122">
         <v>1.1000000000000001</v>
@@ -4899,19 +4899,19 @@
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="147" t="s">
-        <v>311</v>
-      </c>
-      <c r="T9" s="150"/>
+      <c r="S9" s="139" t="s">
+        <v>310</v>
+      </c>
+      <c r="T9" s="142"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="133" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" s="124"/>
       <c r="D10" s="15"/>
@@ -4924,27 +4924,27 @@
       <c r="K10" s="110"/>
       <c r="L10" s="15"/>
       <c r="M10" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N10" s="122"/>
       <c r="O10" s="120"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="147" t="s">
+      <c r="S10" s="139" t="s">
+        <v>311</v>
+      </c>
+      <c r="T10" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="T10" s="147" t="s">
-        <v>313</v>
-      </c>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="133" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" s="124"/>
       <c r="D11" s="15"/>
@@ -4957,25 +4957,25 @@
       <c r="K11" s="110"/>
       <c r="L11" s="15"/>
       <c r="M11" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" s="122"/>
       <c r="O11" s="120"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="147" t="s">
-        <v>314</v>
-      </c>
-      <c r="T11" s="150"/>
+      <c r="S11" s="139" t="s">
+        <v>313</v>
+      </c>
+      <c r="T11" s="142"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="134" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="15"/>
@@ -4988,25 +4988,25 @@
       <c r="K12" s="110"/>
       <c r="L12" s="15"/>
       <c r="M12" s="23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N12" s="122"/>
       <c r="O12" s="120"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="T12" s="152"/>
+      <c r="S12" s="143" t="s">
+        <v>314</v>
+      </c>
+      <c r="T12" s="144"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="133" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="124">
         <v>2</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" s="122">
         <v>1.9</v>
@@ -5040,10 +5040,10 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="124">
         <v>1</v>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14" s="122">
         <v>0.6</v>
@@ -5077,10 +5077,10 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="135" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="124">
         <v>1</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N15" s="122">
         <v>3.4</v>
@@ -5114,10 +5114,10 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="135" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="124">
         <v>5</v>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" s="122">
         <v>0.37</v>
@@ -5151,10 +5151,10 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="32"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="124">
         <v>10</v>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N17" s="122">
         <v>0.35</v>
@@ -5188,10 +5188,10 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="133" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C18" s="124">
         <v>1</v>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" s="122">
         <v>0</v>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R18" s="4"/>
     </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18"/>
       <c r="B19" s="136"/>
       <c r="C19" s="3"/>
@@ -5256,7 +5256,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="32"/>
     </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="136"/>
       <c r="C20" s="3"/>
@@ -5285,7 +5285,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="32"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="136"/>
       <c r="C21" s="3"/>
@@ -5314,7 +5314,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="4"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
@@ -5343,7 +5343,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -5372,7 +5372,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
@@ -5401,7 +5401,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -5430,7 +5430,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="4"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
@@ -5459,7 +5459,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="4"/>
     </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="3"/>
@@ -5488,7 +5488,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="32"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
@@ -5517,7 +5517,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
@@ -5546,7 +5546,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
@@ -5574,7 +5574,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
@@ -5604,7 +5604,7 @@
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
@@ -5633,7 +5633,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="35"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
@@ -5662,7 +5662,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="35"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -5691,7 +5691,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="35"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
@@ -5720,7 +5720,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="35"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
@@ -5749,7 +5749,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="35"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="20"/>
       <c r="C37" s="3"/>
@@ -5779,7 +5779,7 @@
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="21"/>
@@ -5809,7 +5809,7 @@
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
     </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="21"/>
@@ -5839,7 +5839,7 @@
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
     </row>
-    <row r="40" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="B40" s="9"/>
       <c r="C40" s="21"/>
@@ -5869,7 +5869,7 @@
       <c r="R40" s="35"/>
       <c r="S40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="9"/>
       <c r="C41" s="3"/>
@@ -5898,7 +5898,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
@@ -5927,7 +5927,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="35"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
@@ -5956,7 +5956,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="35"/>
     </row>
-    <row r="44" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="3"/>
@@ -5986,7 +5986,7 @@
       <c r="R44" s="35"/>
       <c r="S44" s="33"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -6015,7 +6015,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="37"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -6044,7 +6044,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="35"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -6073,7 +6073,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="35"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -6102,7 +6102,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="35"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -6131,7 +6131,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="35"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="25"/>
@@ -6159,7 +6159,7 @@
       <c r="P50" s="83"/>
       <c r="Q50" s="18"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="25"/>
@@ -6188,7 +6188,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="35"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="25"/>
@@ -6217,7 +6217,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="35"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A53" s="20"/>
       <c r="B53" s="39"/>
       <c r="C53" s="126"/>
@@ -6245,7 +6245,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="20"/>
       <c r="B54" s="39"/>
       <c r="C54" s="126"/>
@@ -6265,13 +6265,13 @@
       <c r="Q54" s="34"/>
       <c r="R54" s="35"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="20"/>
       <c r="B55" s="39"/>
       <c r="C55" s="126"/>
       <c r="D55" s="15"/>
       <c r="E55" s="87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F55" s="127"/>
       <c r="G55" s="127">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="H55" s="15"/>
       <c r="I55" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J55" s="127"/>
       <c r="K55" s="127">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N55" s="110"/>
       <c r="O55" s="129">
@@ -6299,58 +6299,58 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A56" s="140"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="140"/>
-      <c r="N56" s="140"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="142"/>
-      <c r="U56" s="142"/>
-      <c r="V56" s="142"/>
-      <c r="W56" s="142"/>
-      <c r="X56" s="142"/>
-      <c r="Y56" s="142"/>
-      <c r="Z56" s="142"/>
-      <c r="AA56" s="142"/>
-      <c r="AB56" s="143"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A56" s="146"/>
+      <c r="B56" s="146"/>
+      <c r="C56" s="146"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="146"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="146"/>
+      <c r="H56" s="146"/>
+      <c r="I56" s="146"/>
+      <c r="J56" s="146"/>
+      <c r="K56" s="146"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="146"/>
+      <c r="N56" s="146"/>
+      <c r="O56" s="147"/>
+      <c r="P56" s="148"/>
+      <c r="Q56" s="148"/>
+      <c r="R56" s="148"/>
+      <c r="S56" s="148"/>
+      <c r="T56" s="148"/>
+      <c r="U56" s="148"/>
+      <c r="V56" s="148"/>
+      <c r="W56" s="148"/>
+      <c r="X56" s="148"/>
+      <c r="Y56" s="148"/>
+      <c r="Z56" s="148"/>
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="149"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="J57" s="33"/>
       <c r="K57" s="33"/>
       <c r="O57" s="33"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
       <c r="O58" s="33"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
       <c r="J59" s="33"/>
       <c r="K59" s="33"/>
       <c r="O59" s="33"/>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="24"/>
@@ -6370,28 +6370,28 @@
       <c r="Q60" s="15"/>
       <c r="R60" s="15"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
       <c r="J61" s="33"/>
       <c r="K61" s="33"/>
       <c r="O61" s="33"/>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="J62" s="33"/>
       <c r="K62" s="33"/>
       <c r="O62" s="33"/>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="J63" s="33"/>
       <c r="K63" s="33"/>
       <c r="O63" s="33"/>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="J64" s="33"/>
@@ -6434,7 +6434,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
@@ -6457,52 +6457,52 @@
     <col min="21" max="21" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J1" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>91</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>92</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="P1" s="16"/>
       <c r="Q1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="93"/>
@@ -6531,7 +6531,7 @@
       <c r="Q2" s="90"/>
       <c r="R2" s="63"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="91"/>
       <c r="B3" s="91"/>
       <c r="C3" s="94"/>
@@ -6560,7 +6560,7 @@
       <c r="Q3" s="91"/>
       <c r="R3" s="63"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="91"/>
       <c r="B4" s="91"/>
       <c r="C4" s="94"/>
@@ -6589,7 +6589,7 @@
       <c r="Q4" s="91"/>
       <c r="R4" s="63"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="91"/>
       <c r="B5" s="18"/>
       <c r="C5" s="94"/>
@@ -6618,7 +6618,7 @@
       <c r="Q5" s="91"/>
       <c r="R5" s="63"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="91"/>
       <c r="B6" s="91"/>
       <c r="C6" s="94"/>
@@ -6647,7 +6647,7 @@
       <c r="Q6" s="91"/>
       <c r="R6" s="63"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="91"/>
       <c r="B7" s="18"/>
       <c r="C7" s="94"/>
@@ -6676,7 +6676,7 @@
       <c r="Q7" s="91"/>
       <c r="R7" s="63"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="91"/>
       <c r="B8" s="91"/>
       <c r="C8" s="94"/>
@@ -6705,7 +6705,7 @@
       <c r="Q8" s="91"/>
       <c r="R8" s="63"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="91"/>
       <c r="B9" s="91"/>
       <c r="C9" s="94"/>
@@ -6734,7 +6734,7 @@
       <c r="Q9" s="91"/>
       <c r="R9" s="63"/>
     </row>
-    <row r="10" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18"/>
       <c r="B10" s="91"/>
       <c r="C10" s="94"/>
@@ -6763,7 +6763,7 @@
       <c r="Q10" s="105"/>
       <c r="R10" s="73"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="91"/>
       <c r="B11" s="91"/>
       <c r="C11" s="94"/>
@@ -6792,7 +6792,7 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="63"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="91"/>
       <c r="B12" s="91"/>
       <c r="C12" s="94"/>
@@ -6821,7 +6821,7 @@
       <c r="Q12" s="91"/>
       <c r="R12" s="63"/>
     </row>
-    <row r="13" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="91"/>
       <c r="C13" s="94"/>
@@ -6850,7 +6850,7 @@
       <c r="Q13" s="91"/>
       <c r="R13" s="73"/>
     </row>
-    <row r="14" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="91"/>
       <c r="C14" s="94"/>
@@ -6879,7 +6879,7 @@
       <c r="Q14" s="91"/>
       <c r="R14" s="73"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="91"/>
       <c r="B15" s="91"/>
       <c r="C15" s="94"/>
@@ -6908,7 +6908,7 @@
       <c r="Q15" s="91"/>
       <c r="R15" s="63"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="91"/>
       <c r="B16" s="91"/>
       <c r="C16" s="94"/>
@@ -6937,7 +6937,7 @@
       <c r="Q16" s="91"/>
       <c r="R16" s="63"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="91"/>
       <c r="B17" s="91"/>
       <c r="C17" s="94"/>
@@ -6966,7 +6966,7 @@
       <c r="Q17" s="91"/>
       <c r="R17" s="63"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="91"/>
       <c r="B18" s="91"/>
       <c r="C18" s="94"/>
@@ -6995,7 +6995,7 @@
       <c r="Q18" s="91"/>
       <c r="R18" s="63"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="91"/>
       <c r="B19" s="91"/>
       <c r="C19" s="94"/>
@@ -7024,7 +7024,7 @@
       <c r="Q19" s="91"/>
       <c r="R19" s="63"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="91"/>
       <c r="B20" s="91"/>
       <c r="C20" s="94"/>
@@ -7053,7 +7053,7 @@
       <c r="Q20" s="105"/>
       <c r="R20" s="63"/>
     </row>
-    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="94"/>
@@ -7082,7 +7082,7 @@
       <c r="Q21" s="91"/>
       <c r="R21" s="73"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="91"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94"/>
@@ -7111,7 +7111,7 @@
       <c r="Q22" s="91"/>
       <c r="R22" s="63"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="91"/>
       <c r="B23" s="91"/>
       <c r="C23" s="94"/>
@@ -7140,7 +7140,7 @@
       <c r="Q23" s="91"/>
       <c r="R23" s="63"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="91"/>
       <c r="C24" s="94"/>
@@ -7168,7 +7168,7 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="105"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="91"/>
       <c r="B25" s="91"/>
       <c r="C25" s="94"/>
@@ -7198,7 +7198,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="91"/>
       <c r="B26" s="91"/>
       <c r="C26" s="94"/>
@@ -7227,7 +7227,7 @@
       <c r="Q26" s="91"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="91"/>
       <c r="B27" s="91"/>
       <c r="C27" s="94"/>
@@ -7256,7 +7256,7 @@
       <c r="Q27" s="91"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="91"/>
       <c r="B28" s="91"/>
       <c r="C28" s="94"/>
@@ -7285,7 +7285,7 @@
       <c r="Q28" s="91"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="91"/>
       <c r="B29" s="91"/>
       <c r="C29" s="94"/>
@@ -7314,7 +7314,7 @@
       <c r="Q29" s="91"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="91"/>
       <c r="B30" s="91"/>
       <c r="C30" s="94"/>
@@ -7343,7 +7343,7 @@
       <c r="Q30" s="91"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="91"/>
       <c r="B31" s="92"/>
       <c r="C31" s="94"/>
@@ -7373,7 +7373,7 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="91"/>
       <c r="B32" s="91"/>
       <c r="C32" s="95"/>
@@ -7403,7 +7403,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="91"/>
       <c r="B33" s="91"/>
       <c r="C33" s="95"/>
@@ -7433,7 +7433,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="91"/>
       <c r="B34" s="90"/>
       <c r="C34" s="95"/>
@@ -7463,7 +7463,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="91"/>
       <c r="B35" s="90"/>
       <c r="C35" s="94"/>
@@ -7492,7 +7492,7 @@
       <c r="Q35" s="91"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="91"/>
       <c r="B36" s="91"/>
       <c r="C36" s="94"/>
@@ -7521,7 +7521,7 @@
       <c r="Q36" s="91"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="91"/>
       <c r="B37" s="91"/>
       <c r="C37" s="94"/>
@@ -7550,7 +7550,7 @@
       <c r="Q37" s="91"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="94"/>
@@ -7580,7 +7580,7 @@
       <c r="R38" s="11"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="91"/>
       <c r="B39" s="91"/>
       <c r="C39" s="94"/>
@@ -7609,7 +7609,7 @@
       <c r="Q39" s="91"/>
       <c r="R39" s="12"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="91"/>
       <c r="B40" s="91"/>
       <c r="C40" s="94"/>
@@ -7638,7 +7638,7 @@
       <c r="Q40" s="91"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="91"/>
       <c r="B41" s="91"/>
       <c r="C41" s="94"/>
@@ -7667,7 +7667,7 @@
       <c r="Q41" s="91"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="91"/>
       <c r="B42" s="91"/>
       <c r="C42" s="94"/>
@@ -7696,7 +7696,7 @@
       <c r="Q42" s="91"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="91"/>
       <c r="B43" s="91"/>
       <c r="C43" s="94"/>
@@ -7725,7 +7725,7 @@
       <c r="Q43" s="91"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="91"/>
       <c r="B44" s="91"/>
       <c r="C44" s="96"/>
@@ -7753,7 +7753,7 @@
       <c r="P44" s="83"/>
       <c r="Q44" s="18"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="91"/>
       <c r="B45" s="91"/>
       <c r="C45" s="96"/>
@@ -7782,7 +7782,7 @@
       <c r="Q45" s="91"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="91"/>
       <c r="B46" s="91"/>
       <c r="C46" s="96"/>
@@ -7811,7 +7811,7 @@
       <c r="Q46" s="91"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="92"/>
       <c r="B47" s="76"/>
       <c r="C47" s="80"/>
@@ -7839,7 +7839,7 @@
       <c r="P47" s="16"/>
       <c r="Q47" s="91"/>
     </row>
-    <row r="48" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="92"/>
       <c r="B48" s="76"/>
       <c r="C48" s="80"/>
@@ -7859,13 +7859,13 @@
       <c r="Q48" s="27"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A49" s="92"/>
       <c r="B49" s="76"/>
       <c r="C49" s="80"/>
       <c r="D49" s="16"/>
       <c r="E49" s="87" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="86"/>
       <c r="G49" s="86">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J49" s="86"/>
       <c r="K49" s="86">
@@ -7883,7 +7883,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="87" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N49" s="86"/>
       <c r="O49" s="86">
@@ -7893,37 +7893,37 @@
       <c r="P49" s="16"/>
       <c r="Q49" s="27"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A50" s="139"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="144"/>
-      <c r="P50" s="145"/>
-      <c r="Q50" s="145"/>
-      <c r="R50" s="145"/>
-      <c r="S50" s="145"/>
-      <c r="T50" s="145"/>
-      <c r="U50" s="145"/>
-      <c r="V50" s="145"/>
-      <c r="W50" s="145"/>
-      <c r="X50" s="145"/>
-      <c r="Y50" s="145"/>
-      <c r="Z50" s="145"/>
-      <c r="AA50" s="145"/>
-      <c r="AB50" s="146"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A50" s="145"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+      <c r="O50" s="150"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
+      <c r="AA50" s="151"/>
+      <c r="AB50" s="152"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F51"/>
       <c r="G51"/>
       <c r="J51"/>
@@ -7931,7 +7931,7 @@
       <c r="N51"/>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F52"/>
       <c r="G52"/>
       <c r="J52"/>
@@ -7939,7 +7939,7 @@
       <c r="N52"/>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F53"/>
       <c r="G53"/>
       <c r="J53"/>
@@ -7947,7 +7947,7 @@
       <c r="N53"/>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="89"/>
@@ -7967,7 +7967,7 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="16"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F55"/>
       <c r="G55"/>
       <c r="J55"/>
@@ -7975,7 +7975,7 @@
       <c r="N55"/>
       <c r="O55"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F56"/>
       <c r="G56"/>
       <c r="J56"/>
@@ -7983,7 +7983,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F57"/>
       <c r="G57"/>
       <c r="J57"/>
@@ -7991,7 +7991,7 @@
       <c r="N57"/>
       <c r="O57"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.35">
       <c r="F58"/>
       <c r="G58"/>
       <c r="J58"/>
